--- a/validation/insitu_list.xlsx
+++ b/validation/insitu_list.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\Remote-Sensing-of-Albedo\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E10119D9-11BA-468C-90FE-350F16B2D3BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517BF56-A5C0-4741-B556-4ACD5232FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="1575" windowWidth="28800" windowHeight="15435" xr2:uid="{1D709D8C-F7FD-4280-AD83-91296321D686}"/>
+    <workbookView xWindow="41625" yWindow="3840" windowWidth="28800" windowHeight="15435" xr2:uid="{1D709D8C-F7FD-4280-AD83-91296321D686}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="appendix" sheetId="4" r:id="rId1"/>
+    <sheet name="awsList" sheetId="2" r:id="rId2"/>
+    <sheet name="validation" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet1!$D$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
   <si>
     <t>Site</t>
   </si>
@@ -84,9 +87,6 @@
     <t>North America</t>
   </si>
   <si>
-    <t>Djankuat AWS1</t>
-  </si>
-  <si>
     <t>North Caucasus</t>
   </si>
   <si>
@@ -96,9 +96,6 @@
     <t>https://doi.pangaea.de/10.1594/PANGAEA.894808</t>
   </si>
   <si>
-    <t>Djankuat AWS2</t>
-  </si>
-  <si>
     <t>Kwadacha Glacier</t>
   </si>
   <si>
@@ -181,16 +178,80 @@
   </si>
   <si>
     <t>not on glacier</t>
+  </si>
+  <si>
+    <t>Djankuat AWS2 (debris)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djankuat AWS1 </t>
+  </si>
+  <si>
+    <t>Storglaciären</t>
+  </si>
+  <si>
+    <t>Scandinavian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCall Glacier </t>
+  </si>
+  <si>
+    <t>UTC-7</t>
+  </si>
+  <si>
+    <t>Yala Glacier</t>
+  </si>
+  <si>
+    <t>Shallap Glacier</t>
+  </si>
+  <si>
+    <t>UTC-9</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Intercept</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>NSE</t>
+  </si>
+  <si>
+    <t>lnE</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>E_j</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yala Glacier </t>
+  </si>
+  <si>
+    <t>Scandinavia</t>
+  </si>
+  <si>
+    <t>UTC+5 (28.23436667, 85.62083333, after 2018-11-28)</t>
+  </si>
+  <si>
+    <t>https://su.figshare.com/TRS</t>
+  </si>
+  <si>
+    <t>https://arcticdata.io/catalog/view/doi:10.18739/A27S7HS5V</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,6 +292,24 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -270,7 +349,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -279,6 +358,40 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -595,11 +708,795 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F0F79F-703B-4ABE-A58D-210E777CB560}">
-  <dimension ref="A1:R10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420743FE-EE57-4FFC-84A0-B77C26AAC9AB}">
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection sqref="A1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="15">
+        <v>43525</v>
+      </c>
+      <c r="E2" s="15">
+        <v>41381</v>
+      </c>
+      <c r="F2" s="15">
+        <v>43355</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="11">
+        <v>1.1787000000000001</v>
+      </c>
+      <c r="J2" s="11">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="L2" s="11">
+        <v>0</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="N2" s="13">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15">
+        <v>44820</v>
+      </c>
+      <c r="E3" s="15">
+        <v>42517</v>
+      </c>
+      <c r="F3" s="15">
+        <v>43830</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="J3" s="11">
+        <v>0.1338</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="N3" s="13">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44820</v>
+      </c>
+      <c r="E4" s="15">
+        <v>40384</v>
+      </c>
+      <c r="F4" s="15">
+        <v>41170</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.1306</v>
+      </c>
+      <c r="J4" s="11">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="K4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="L4" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="N4" s="13">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.50560000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="15">
+        <v>44820</v>
+      </c>
+      <c r="E5" s="15">
+        <v>37987</v>
+      </c>
+      <c r="F5" s="15">
+        <v>41640</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="11">
+        <v>1.1476</v>
+      </c>
+      <c r="J5" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="K5" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.56389999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{50301918-1036-428F-8C21-685E866801A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB55941-20E2-47CF-95CA-741EDA8C00C2}">
+  <dimension ref="A1:R6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="10"/>
+    <col min="9" max="10" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="14">
+        <v>67.903000000000006</v>
+      </c>
+      <c r="C2" s="14">
+        <v>18.572600000000001</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="15">
+        <v>43525</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="15">
+        <v>41381</v>
+      </c>
+      <c r="J2" s="15">
+        <v>43355</v>
+      </c>
+      <c r="K2" s="11">
+        <v>1.1787000000000001</v>
+      </c>
+      <c r="L2" s="11">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="M2" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="N2" s="11">
+        <v>0</v>
+      </c>
+      <c r="O2" s="13">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="P2" s="13">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="R2" s="13">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="16">
+        <v>28.234629999999999</v>
+      </c>
+      <c r="C3" s="16">
+        <v>85.61797</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="15">
+        <v>44820</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" s="15">
+        <v>42517</v>
+      </c>
+      <c r="J3" s="15">
+        <v>43830</v>
+      </c>
+      <c r="K3" s="11">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="L3" s="11">
+        <v>0.1338</v>
+      </c>
+      <c r="M3" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="N3" s="11">
+        <v>0</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="P3" s="13">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-9.4892441600000002</v>
+      </c>
+      <c r="C4" s="16">
+        <v>-77.338099999999997</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="15">
+        <v>44820</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="15">
+        <v>40384</v>
+      </c>
+      <c r="J4" s="15">
+        <v>41170</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1.1306</v>
+      </c>
+      <c r="L4" s="11">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="M4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="N4" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0.50560000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="14">
+        <v>69.315700000000007</v>
+      </c>
+      <c r="C5" s="14">
+        <v>-143.85355999999999</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="15">
+        <v>44820</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="15">
+        <v>37987</v>
+      </c>
+      <c r="J5" s="15">
+        <v>41640</v>
+      </c>
+      <c r="K5" s="11">
+        <v>1.1476</v>
+      </c>
+      <c r="L5" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="N5" s="11">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0.56389999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="18">
+        <v>50.712400000000002</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-115.3018</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="19">
+        <v>44820</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19">
+        <v>37257</v>
+      </c>
+      <c r="J6" s="19">
+        <v>42369</v>
+      </c>
+      <c r="K6" s="11">
+        <v>1.2362</v>
+      </c>
+      <c r="L6" s="11">
+        <v>-6.2100000000000002E-2</v>
+      </c>
+      <c r="M6" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="N6" s="11">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="O6" s="11">
+        <v>0.48180000000000001</v>
+      </c>
+      <c r="P6" s="11">
+        <v>0.46160000000000001</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>0.77649999999999997</v>
+      </c>
+      <c r="R6" s="11">
+        <v>0.39989999999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{08BDC260-8AD2-4BA4-BF35-379F3123582E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0986DE2-58EB-45BA-A7BC-3E562B611CE1}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="11">
+        <v>1.1787000000000001</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="H2" s="13">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="I2" s="13">
+        <v>0.56259999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.1338</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="F3" s="13">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="H3" s="13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I3" s="13">
+        <v>0.1928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1.1306</v>
+      </c>
+      <c r="D4" s="11">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="I4" s="13">
+        <v>0.50560000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="11">
+        <v>1.1476</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0.56389999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8F0F79F-703B-4ABE-A58D-210E777CB560}">
+  <dimension ref="A1:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,28 +1539,28 @@
         <v>11</v>
       </c>
       <c r="K1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" t="s">
         <v>36</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
         <v>37</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>38</v>
       </c>
-      <c r="N1" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>39</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>40</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -677,7 +1574,7 @@
         <v>96.932000000000002</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -685,7 +1582,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2">
         <v>42526</v>
@@ -720,7 +1617,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>28.23</v>
@@ -729,15 +1626,15 @@
         <v>85.62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I3" s="2">
         <v>42517</v>
@@ -765,7 +1662,7 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I4" s="7">
         <v>37257</v>
@@ -800,7 +1697,7 @@
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3">
         <v>57.825200000000002</v>
@@ -812,12 +1709,12 @@
         <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I5" s="4">
         <v>39592</v>
@@ -828,7 +1725,7 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>43.198</v>
@@ -837,15 +1734,15 @@
         <v>42.756999999999998</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="2">
         <v>39248</v>
@@ -880,7 +1777,7 @@
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B7" s="3">
         <v>43.2</v>
@@ -889,15 +1786,15 @@
         <v>42.759</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="4">
         <v>39250</v>
@@ -908,7 +1805,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="3">
         <v>-8.9615045445000003</v>
@@ -917,15 +1814,15 @@
         <v>-77.632278645900001</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I8" s="4">
         <v>38058</v>
@@ -936,7 +1833,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>-9.4892441600000002</v>
@@ -945,15 +1842,15 @@
         <v>-77.338099999999997</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I9" s="2">
         <v>40384</v>
@@ -988,7 +1885,7 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3">
         <v>27.843</v>
@@ -997,21 +1894,71 @@
         <v>86.486999999999995</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I10" s="4">
         <v>42506</v>
       </c>
       <c r="J10" s="4">
         <v>43779</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="8">
+        <v>69.315700000000007</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-143.85355999999999</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="2">
+        <v>37987</v>
+      </c>
+      <c r="J11" s="2">
+        <v>41640</v>
+      </c>
+      <c r="K11" s="9">
+        <v>1.2358</v>
+      </c>
+      <c r="L11" s="9">
+        <v>-2.5100000000000001E-2</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.91</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.67249999999999999</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.80289999999999995</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.89449999999999996</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.51639999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/validation/insitu_list.xlsx
+++ b/validation/insitu_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au686295\Documents\GitHub\PhD\Remote-Sensing-of-Albedo\validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7517BF56-A5C0-4741-B556-4ACD5232FC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880A5F30-5058-46B3-AF94-52498DD70B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41625" yWindow="3840" windowWidth="28800" windowHeight="15435" xr2:uid="{1D709D8C-F7FD-4280-AD83-91296321D686}"/>
+    <workbookView xWindow="8280" yWindow="4140" windowWidth="28800" windowHeight="15375" activeTab="1" xr2:uid="{1D709D8C-F7FD-4280-AD83-91296321D686}"/>
   </bookViews>
   <sheets>
     <sheet name="appendix" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="77">
   <si>
     <t>Site</t>
   </si>
@@ -241,6 +241,36 @@
   </si>
   <si>
     <t>https://arcticdata.io/catalog/view/doi:10.18739/A27S7HS5V</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18739/A27S7HS5V</t>
+  </si>
+  <si>
+    <t>Qaanaaq ice cap</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>https://ads.nipr.ac.jp/dataset/A20220413-006</t>
+  </si>
+  <si>
+    <t>Alps</t>
+  </si>
+  <si>
+    <t>Hintereisferner</t>
+  </si>
+  <si>
+    <t>https://acinn-data.uibk.ac.at/pages/hintereisferner.html</t>
+  </si>
+  <si>
+    <t>UTC+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glacier de la Plaine Morte </t>
+  </si>
+  <si>
+    <t>UTC+2</t>
   </si>
 </sst>
 </file>
@@ -251,7 +281,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -310,6 +340,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -343,13 +381,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
@@ -392,10 +431,17 @@
     <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -709,22 +755,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420743FE-EE57-4FFC-84A0-B77C26AAC9AB}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="52.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -738,43 +785,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>48</v>
       </c>
@@ -787,40 +831,39 @@
       <c r="D2" s="15">
         <v>43525</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="14"/>
+      <c r="F2" s="11">
+        <v>1.1787000000000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>-4.0300000000000002E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="I2" s="11">
+        <v>0</v>
+      </c>
+      <c r="J2" s="13">
+        <v>0.70620000000000005</v>
+      </c>
+      <c r="K2" s="13">
+        <v>0.81179999999999997</v>
+      </c>
+      <c r="L2" s="13">
+        <v>0.90059999999999996</v>
+      </c>
+      <c r="M2" s="13">
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="N2" s="15">
         <v>41381</v>
       </c>
-      <c r="F2" s="15">
+      <c r="O2" s="15">
         <v>43355</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="11">
-        <v>1.1787000000000001</v>
-      </c>
-      <c r="J2" s="11">
-        <v>-4.0300000000000002E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <v>0.88</v>
-      </c>
-      <c r="L2" s="11">
-        <v>0</v>
-      </c>
-      <c r="M2" s="13">
-        <v>0.70620000000000005</v>
-      </c>
-      <c r="N2" s="13">
-        <v>0.81179999999999997</v>
-      </c>
-      <c r="O2" s="13">
-        <v>0.90059999999999996</v>
-      </c>
-      <c r="P2" s="13">
-        <v>0.56259999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>52</v>
       </c>
@@ -833,42 +876,39 @@
       <c r="D3" s="15">
         <v>44820</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14"/>
+      <c r="F3" s="11">
+        <v>0.65429999999999999</v>
+      </c>
+      <c r="G3" s="11">
+        <v>0.1338</v>
+      </c>
+      <c r="H3" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="I3" s="11">
+        <v>0</v>
+      </c>
+      <c r="J3" s="13">
+        <v>0.32079999999999997</v>
+      </c>
+      <c r="K3" s="13">
+        <v>0.50309999999999999</v>
+      </c>
+      <c r="L3" s="13">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="M3" s="13">
+        <v>0.1928</v>
+      </c>
+      <c r="N3" s="15">
         <v>42517</v>
       </c>
-      <c r="F3" s="15">
+      <c r="O3" s="15">
         <v>43830</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="I3" s="11">
-        <v>0.65429999999999999</v>
-      </c>
-      <c r="J3" s="11">
-        <v>0.1338</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0.79</v>
-      </c>
-      <c r="L3" s="11">
-        <v>0</v>
-      </c>
-      <c r="M3" s="13">
-        <v>0.32079999999999997</v>
-      </c>
-      <c r="N3" s="13">
-        <v>0.50309999999999999</v>
-      </c>
-      <c r="O3" s="13">
-        <v>0.85199999999999998</v>
-      </c>
-      <c r="P3" s="13">
-        <v>0.1928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>53</v>
       </c>
@@ -881,106 +921,203 @@
       <c r="D4" s="15">
         <v>44820</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="14"/>
+      <c r="F4" s="11">
+        <v>1.1306</v>
+      </c>
+      <c r="G4" s="11">
+        <v>-5.4199999999999998E-2</v>
+      </c>
+      <c r="H4" s="12">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="11">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="K4" s="13">
+        <v>0.71589999999999998</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.50560000000000005</v>
+      </c>
+      <c r="N4" s="15">
         <v>40384</v>
       </c>
-      <c r="F4" s="15">
+      <c r="O4" s="15">
         <v>41170</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="11">
-        <v>1.1306</v>
-      </c>
-      <c r="J4" s="11">
-        <v>-5.4199999999999998E-2</v>
-      </c>
-      <c r="K4" s="12">
-        <v>0.75</v>
-      </c>
-      <c r="L4" s="11">
-        <v>1.2999999999999999E-2</v>
-      </c>
-      <c r="M4" s="13">
-        <v>0.55359999999999998</v>
-      </c>
-      <c r="N4" s="13">
-        <v>0.71589999999999998</v>
-      </c>
-      <c r="O4" s="13">
-        <v>0.81640000000000001</v>
-      </c>
-      <c r="P4" s="13">
-        <v>0.50560000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>66</v>
+      <c r="C5" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="D5" s="15">
         <v>44820</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="14"/>
+      <c r="F5" s="11">
+        <v>1.1476</v>
+      </c>
+      <c r="G5" s="11">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="H5" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="I5" s="11">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.72389999999999999</v>
+      </c>
+      <c r="K5" s="13">
+        <v>0.82430000000000003</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0.91659999999999997</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="N5" s="15">
         <v>37987</v>
       </c>
-      <c r="F5" s="15">
+      <c r="O5" s="15">
         <v>41640</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="11">
-        <v>1.1476</v>
-      </c>
-      <c r="J5" s="11">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="K5" s="12">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="15">
+        <v>44848</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="11">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.1946</v>
+      </c>
+      <c r="H6" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
+        <v>-0.4078</v>
+      </c>
+      <c r="K6" s="13">
+        <v>-0.65229999999999999</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="M6" s="13">
+        <v>-0.17080000000000001</v>
+      </c>
+      <c r="N6" s="15">
+        <v>40909</v>
+      </c>
+      <c r="O6" s="15">
+        <v>43831</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="15">
+        <v>44867</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1.1366000000000001</v>
+      </c>
+      <c r="G7" s="13">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="H7" s="13">
         <v>0.92</v>
       </c>
-      <c r="L5" s="11">
+      <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="M5" s="13">
-        <v>0.72389999999999999</v>
-      </c>
-      <c r="N5" s="13">
-        <v>0.82430000000000003</v>
-      </c>
-      <c r="O5" s="13">
-        <v>0.91659999999999997</v>
-      </c>
-      <c r="P5" s="13">
-        <v>0.56389999999999996</v>
+      <c r="J7" s="13">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="K7" s="13">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="N7" s="15">
+        <v>41853</v>
+      </c>
+      <c r="O7" s="15">
+        <v>43334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="15">
+        <v>44875</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{50301918-1036-428F-8C21-685E866801A5}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{17918C7E-0396-4FEC-81FD-9B6177673153}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{342AFCD2-CD19-40CF-8203-C224F7A6CDC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CB55941-20E2-47CF-95CA-741EDA8C00C2}">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:R6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" style="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
@@ -989,7 +1126,8 @@
     <col min="5" max="5" width="70.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="9.140625" style="10"/>
-    <col min="9" max="10" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
@@ -1317,7 +1455,137 @@
         <v>0.39989999999999998</v>
       </c>
     </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="10">
+        <v>77.516666999999998</v>
+      </c>
+      <c r="C7" s="14">
+        <v>-69.066666999999995</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="15">
+        <v>44848</v>
+      </c>
+      <c r="I7" s="15">
+        <v>40909</v>
+      </c>
+      <c r="J7" s="15">
+        <v>43831</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="L7" s="11">
+        <v>0.1946</v>
+      </c>
+      <c r="M7" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="N7" s="10">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>-0.4078</v>
+      </c>
+      <c r="P7" s="13">
+        <v>-0.65229999999999999</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="R7" s="13">
+        <v>-0.17080000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="14">
+        <v>46.805768999999998</v>
+      </c>
+      <c r="C8" s="14">
+        <v>10.774416</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="15">
+        <v>44867</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I8" s="15">
+        <v>41853</v>
+      </c>
+      <c r="J8" s="15">
+        <v>43334</v>
+      </c>
+      <c r="K8" s="13">
+        <v>1.1366000000000001</v>
+      </c>
+      <c r="L8" s="13">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0.62949999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="10">
+        <v>46.378007009999997</v>
+      </c>
+      <c r="C9" s="10">
+        <v>7.4883340389999997</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="15">
+        <v>44875</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I9" s="15">
+        <v>41829</v>
+      </c>
+      <c r="J9" s="15">
+        <v>42997</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" xr:uid="{08BDC260-8AD2-4BA4-BF35-379F3123582E}"/>
   </hyperlinks>
@@ -1328,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0986DE2-58EB-45BA-A7BC-3E562B611CE1}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1751,64 @@
       </c>
       <c r="I5" s="13">
         <v>0.56389999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.78390000000000004</v>
+      </c>
+      <c r="D6" s="11">
+        <v>0.1946</v>
+      </c>
+      <c r="E6" s="12">
+        <v>0.68</v>
+      </c>
+      <c r="F6" s="13">
+        <v>-0.4078</v>
+      </c>
+      <c r="G6" s="13">
+        <v>-0.65229999999999999</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0.68679999999999997</v>
+      </c>
+      <c r="I6" s="13">
+        <v>-0.17080000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="13">
+        <v>1.1366000000000001</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-2.5999999999999999E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0.92</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.82089999999999996</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.80310000000000004</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.62949999999999995</v>
       </c>
     </row>
   </sheetData>
